--- a/5sem/Lab_5_4_1/data/geiger.xlsx
+++ b/5sem/Lab_5_4_1/data/geiger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,7 +434,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>0.5</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0.5</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>0.5</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>0.5</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0.5</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0.5</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0.5</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0.5</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>0.5</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.5</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.5</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>0.5</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>0.5</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>0.5</v>
@@ -959,15 +959,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+      <selection activeCell="A2" sqref="A2:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="5.109375" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" customWidth="1"/>
@@ -1213,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
